--- a/HouseData.xlsx
+++ b/HouseData.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J547"/>
+  <dimension ref="A1:J548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28863,6 +28863,58 @@
       <c r="J547" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>成交年月</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>地址</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>型態</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>單價</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>建坪</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>地坪</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>樓別</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>屋齡</t>
+        </is>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>成交紀錄</t>
         </is>
       </c>
     </row>
